--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -56,9 +56,6 @@
     <t>Wait Time</t>
   </si>
   <si>
-    <t>/data/TestExecution.xlsx</t>
-  </si>
-  <si>
     <t>Execution Type</t>
   </si>
   <si>
@@ -68,40 +65,43 @@
     <t>Chrome</t>
   </si>
   <si>
+    <t>BrowserVersion</t>
+  </si>
+  <si>
+    <t>65.0.3325.146 (Official Build) (64-bit)</t>
+  </si>
+  <si>
+    <t>http://healmaker.wantechsolutions.com/</t>
+  </si>
+  <si>
+    <t>AdminURL</t>
+  </si>
+  <si>
+    <t>Admin URL</t>
+  </si>
+  <si>
+    <t>HealerURL</t>
+  </si>
+  <si>
+    <t>Healer URL</t>
+  </si>
+  <si>
+    <t>Client URL</t>
+  </si>
+  <si>
+    <t>ClientURL</t>
+  </si>
+  <si>
+    <t>https://healmaker-web.wantechsolutions.com/</t>
+  </si>
+  <si>
+    <t>HealerMaker</t>
+  </si>
+  <si>
+    <t>\data\TestExecution.xlsx</t>
+  </si>
+  <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>BrowserVersion</t>
-  </si>
-  <si>
-    <t>65.0.3325.146 (Official Build) (64-bit)</t>
-  </si>
-  <si>
-    <t>http://healmaker.wantechsolutions.com/</t>
-  </si>
-  <si>
-    <t>AdminURL</t>
-  </si>
-  <si>
-    <t>Admin URL</t>
-  </si>
-  <si>
-    <t>HealerURL</t>
-  </si>
-  <si>
-    <t>Healer URL</t>
-  </si>
-  <si>
-    <t>Client URL</t>
-  </si>
-  <si>
-    <t>ClientURL</t>
-  </si>
-  <si>
-    <t>https://healmaker-web.wantechsolutions.com/</t>
-  </si>
-  <si>
-    <t>HealMaker</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1134,35 +1134,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1173,25 +1173,25 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
